--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lgr6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lgr6</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H2">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,33 +552,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.225468</v>
+        <v>0.044174</v>
       </c>
       <c r="N2">
-        <v>0.676404</v>
+        <v>0.132522</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2474193313505733</v>
       </c>
       <c r="Q2">
-        <v>1.08954254448</v>
+        <v>0.002972792402666667</v>
       </c>
       <c r="R2">
-        <v>9.805882900319999</v>
+        <v>0.026755131624</v>
       </c>
       <c r="S2">
-        <v>0.975350813525687</v>
+        <v>0.003398331777557637</v>
       </c>
       <c r="T2">
-        <v>0.975350813525687</v>
+        <v>0.003398331777557636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,55 +587,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.06729733333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.201892</v>
+      </c>
+      <c r="I3">
+        <v>0.01373511018321553</v>
+      </c>
+      <c r="J3">
+        <v>0.01373511018321553</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.134365</v>
+      </c>
+      <c r="N3">
+        <v>0.403095</v>
+      </c>
+      <c r="O3">
+        <v>0.7525806686494267</v>
+      </c>
+      <c r="P3">
+        <v>0.7525806686494266</v>
+      </c>
+      <c r="Q3">
+        <v>0.009042406193333333</v>
+      </c>
+      <c r="R3">
+        <v>0.08138165573999999</v>
+      </c>
+      <c r="S3">
+        <v>0.0103367784056579</v>
+      </c>
+      <c r="T3">
+        <v>0.01033677840565789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.83236</v>
+      </c>
+      <c r="H4">
+        <v>14.49708</v>
+      </c>
+      <c r="I4">
+        <v>0.9862648898167845</v>
+      </c>
+      <c r="J4">
+        <v>0.9862648898167844</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.044174</v>
+      </c>
+      <c r="N4">
+        <v>0.132522</v>
+      </c>
+      <c r="O4">
+        <v>0.2474193313505733</v>
+      </c>
+      <c r="P4">
+        <v>0.2474193313505733</v>
+      </c>
+      <c r="Q4">
+        <v>0.21346467064</v>
+      </c>
+      <c r="R4">
+        <v>1.92118203576</v>
+      </c>
+      <c r="S4">
+        <v>0.2440209995730157</v>
+      </c>
+      <c r="T4">
+        <v>0.2440209995730156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.83236</v>
+      </c>
+      <c r="H5">
+        <v>14.49708</v>
+      </c>
+      <c r="I5">
+        <v>0.9862648898167845</v>
+      </c>
+      <c r="J5">
+        <v>0.9862648898167844</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.122124</v>
-      </c>
-      <c r="H3">
-        <v>0.366372</v>
-      </c>
-      <c r="I3">
-        <v>0.02464918647431296</v>
-      </c>
-      <c r="J3">
-        <v>0.02464918647431297</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>0.225468</v>
-      </c>
-      <c r="N3">
-        <v>0.676404</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.027535054032</v>
-      </c>
-      <c r="R3">
-        <v>0.247815486288</v>
-      </c>
-      <c r="S3">
-        <v>0.02464918647431296</v>
-      </c>
-      <c r="T3">
-        <v>0.02464918647431297</v>
+      <c r="M5">
+        <v>0.134365</v>
+      </c>
+      <c r="N5">
+        <v>0.403095</v>
+      </c>
+      <c r="O5">
+        <v>0.7525806686494267</v>
+      </c>
+      <c r="P5">
+        <v>0.7525806686494266</v>
+      </c>
+      <c r="Q5">
+        <v>0.6493000514</v>
+      </c>
+      <c r="R5">
+        <v>5.8437004626</v>
+      </c>
+      <c r="S5">
+        <v>0.7422438902437689</v>
+      </c>
+      <c r="T5">
+        <v>0.7422438902437687</v>
       </c>
     </row>
   </sheetData>
